--- a/안경.xlsx
+++ b/안경.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\PycharmProjects\SWIntership_flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57184197-612A-4007-AFA7-1FDB69780EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E89320-C109-4D7F-BB96-EE4D5DF1892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1970" yWindow="750" windowWidth="22620" windowHeight="13400" xr2:uid="{CFD1DE0B-097D-47C0-BDD3-25E157FA7E7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" xr2:uid="{CFD1DE0B-097D-47C0-BDD3-25E157FA7E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DE77D9-6634-476E-818E-BD916CB5FB2B}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
